--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3873.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3873.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.715841119258246</v>
+        <v>3.949199438095093</v>
       </c>
       <c r="B1">
-        <v>2.81689510957253</v>
+        <v>2.976226091384888</v>
       </c>
       <c r="C1">
-        <v>3.044592932679396</v>
+        <v>2.727855205535889</v>
       </c>
       <c r="D1">
-        <v>3.46856071668395</v>
+        <v>3.474883079528809</v>
       </c>
       <c r="E1">
-        <v>1.966515232020746</v>
+        <v>4.893055438995361</v>
       </c>
     </row>
   </sheetData>
